--- a/target/test-classes/TestData/InputDataSheet.xlsx
+++ b/target/test-classes/TestData/InputDataSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Make</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>HSN: 8566, TSN: 430</t>
+  </si>
+  <si>
+    <t>TESTModel</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,36 +925,71 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
     </row>

--- a/target/test-classes/TestData/InputDataSheet.xlsx
+++ b/target/test-classes/TestData/InputDataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12585" windowHeight="3555"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>Make</t>
   </si>
@@ -223,6 +224,9 @@
   </si>
   <si>
     <t>TESTModel</t>
+  </si>
+  <si>
+    <t>CarLookupPositive_Test</t>
   </si>
 </sst>
 </file>
@@ -558,7 +562,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,7 +929,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
